--- a/data/templates/status/formation.xlsx
+++ b/data/templates/status/formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283338FF-A13E-4D1C-9125-8D293241D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4F486-D404-4B1B-8DEA-EBEAC19C3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
+    <workbookView xWindow="1065" yWindow="120" windowWidth="25575" windowHeight="15210" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
   </bookViews>
   <sheets>
     <sheet name="조립 공정" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2645,15 +2645,15 @@
       <c r="AG26" s="32"/>
       <c r="AH26" s="33"/>
       <c r="AI26" s="5">
-        <f>IFERROR(PRODUCT(AI4,AI7,AI25,AI10,AI13,AI16,),"")</f>
+        <f>IFERROR(AVERAGE(AI4,AI7,AI25,AI10,AI13,AI16,),"")</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AK26" s="5">
-        <f>IFERROR(PRODUCT(AK2,AK5,AK17,AK8,AK11,AK14),"")</f>
-        <v>0</v>
+      <c r="AK26" s="5" t="str">
+        <f>IFERROR(AVERAGE(AK2,AK5,AK17,AK8,AK11,AK14),"")</f>
+        <v/>
       </c>
       <c r="AL26" s="6" t="s">
         <v>7</v>
@@ -2670,6 +2670,9 @@
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AJ2:AJ4"/>
     <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AL8:AL10"/>
     <mergeCell ref="A26:AH26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -2685,9 +2688,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AL8:AL10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="AJ14:AJ16"/>

--- a/data/templates/status/formation.xlsx
+++ b/data/templates/status/formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4F486-D404-4B1B-8DEA-EBEAC19C3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39880296-CBEF-460C-94DA-56A2872A8B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="120" windowWidth="25575" windowHeight="15210" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
+    <workbookView xWindow="720" yWindow="1425" windowWidth="24705" windowHeight="13965" xr2:uid="{E25BFB65-D502-4278-AB85-8965F34E216B}"/>
   </bookViews>
   <sheets>
     <sheet name="조립 공정" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>외관검사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre
 Formation</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -126,6 +122,10 @@
   <si>
     <t>Aging
 OCV/IR_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종검사</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -382,28 +382,52 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,55 +439,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +804,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,11 +820,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="2">
         <v>1</v>
       </c>
@@ -932,13 +932,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -974,19 +974,19 @@
         <f t="shared" ref="AI2:AI3" si="0">SUM(D2:AH2)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="28" t="str">
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="20" t="str">
         <f t="shared" ref="AK2" si="1">IFERROR(AI2/AL2,"")</f>
         <v/>
       </c>
-      <c r="AL2" s="25"/>
+      <c r="AL2" s="14"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1022,16 +1022,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="26"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="15"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="4" t="str">
         <f>IFERROR(D2/(D2+D3),"")</f>
         <v/>
@@ -1160,18 +1160,18 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="27"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1207,19 +1207,19 @@
         <f t="shared" ref="AI5:AI6" si="3">SUM(D5:AH5)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="28" t="str">
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="20" t="str">
         <f t="shared" ref="AK5" si="4">IFERROR(AI5/AL5,"")</f>
         <v/>
       </c>
-      <c r="AL5" s="25"/>
+      <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1255,16 +1255,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="26"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="15"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="4" t="str">
         <f>IFERROR(D5/(D5+D6),"")</f>
         <v/>
@@ -1393,18 +1393,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="27"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1440,19 +1440,19 @@
         <f t="shared" ref="AI8:AI9" si="6">SUM(D8:AH8)</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="28" t="str">
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="20" t="str">
         <f t="shared" ref="AK8" si="7">IFERROR(AI8/AL8,"")</f>
         <v/>
       </c>
-      <c r="AL8" s="25"/>
+      <c r="AL8" s="14"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1488,16 +1488,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="26"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="15"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="4" t="str">
         <f>IFERROR(D8/(D8+D9),"")</f>
         <v/>
@@ -1626,18 +1626,18 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="27"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1673,19 +1673,19 @@
         <f t="shared" ref="AI11:AI12" si="9">SUM(D11:AH11)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="28" t="str">
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="20" t="str">
         <f t="shared" ref="AK11" si="10">IFERROR(AI11/AL11,"")</f>
         <v/>
       </c>
-      <c r="AL11" s="25"/>
+      <c r="AL11" s="14"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1721,16 +1721,16 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="26"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="15"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="4" t="str">
         <f>IFERROR(D11/(D11+D12),"")</f>
         <v/>
@@ -1859,18 +1859,18 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="27"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1906,19 +1906,19 @@
         <f t="shared" ref="AI14:AI15" si="12">SUM(D14:AH14)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="28" t="str">
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="20" t="str">
         <f>IFERROR(AI14/AL14,"")</f>
         <v/>
       </c>
-      <c r="AL14" s="25"/>
+      <c r="AL14" s="14"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1954,16 +1954,16 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="26"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="4" t="str">
         <f>IFERROR(D14/(D14+D15),"")</f>
         <v/>
@@ -2092,18 +2092,18 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="27"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2139,19 +2139,19 @@
         <f t="shared" ref="AI17:AI24" si="14">SUM(D17:AH17)</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="39" t="str">
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="17" t="str">
         <f>IFERROR(AI17/AL17,"")</f>
         <v/>
       </c>
-      <c r="AL17" s="25"/>
+      <c r="AL17" s="14"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2187,13 +2187,13 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="26"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="15"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2234,13 +2234,13 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="26"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="15"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
@@ -2279,16 +2279,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="40" t="str">
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="18" t="str">
         <f t="shared" ref="AK20:AK23" si="15">IFERROR(AI20/AL20,"")</f>
         <v/>
       </c>
-      <c r="AL20" s="26"/>
+      <c r="AL20" s="15"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2327,13 +2327,13 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="26"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="15"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
@@ -2372,13 +2372,13 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="26"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="15"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2417,16 +2417,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="40" t="str">
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AL23" s="26"/>
+      <c r="AL23" s="15"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
@@ -2465,16 +2465,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="26"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="15"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="4" t="str">
         <f t="shared" ref="D25:AH25" si="16">IFERROR(D17/(D17+D18),"")</f>
         <v/>
@@ -2603,47 +2603,47 @@
         <f>IFERROR(AI17/(AI17+AI18),"")</f>
         <v/>
       </c>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="27"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="33"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="23"/>
       <c r="AI26" s="5">
         <f>IFERROR(AVERAGE(AI4,AI7,AI25,AI10,AI13,AI16,),"")</f>
         <v>0</v>
@@ -2661,18 +2661,23 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AJ17:AJ25"/>
-    <mergeCell ref="AK17:AK25"/>
-    <mergeCell ref="AL17:AL25"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AK14:AK16"/>
+    <mergeCell ref="AL14:AL16"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A26:AH26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B17:C17"/>
@@ -2689,23 +2694,18 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AK14:AK16"/>
-    <mergeCell ref="AL14:AL16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="AJ17:AJ25"/>
+    <mergeCell ref="AK17:AK25"/>
+    <mergeCell ref="AL17:AL25"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AL8:AL10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
